--- a/x-media/KAF3_Referenzprojekte_Vorlage.xlsx
+++ b/x-media/KAF3_Referenzprojekte_Vorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lazyloop\Documents\GitHub\siw-bwl\x-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2BEB2EA-2883-46CE-8974-7419290216FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B245001-5FBB-406A-83DB-909076333223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16755" yWindow="2370" windowWidth="22380" windowHeight="13305" xr2:uid="{667B4C25-519B-4EE6-BD23-5FD45E312C36}"/>
+    <workbookView xWindow="16755" yWindow="2370" windowWidth="28185" windowHeight="15240" xr2:uid="{667B4C25-519B-4EE6-BD23-5FD45E312C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -281,41 +281,41 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,7 +634,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,146 +651,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
